--- a/data/output/Pedido_Semana_14_2026-02-03_vivero.xlsx
+++ b/data/output/Pedido_Semana_14_2026-02-03_vivero.xlsx
@@ -746,10 +746,10 @@
         <v>6</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>107.1</v>
@@ -878,10 +878,10 @@
         <v>2</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6" s="4" t="n">
         <v>65.7</v>
@@ -1406,10 +1406,10 @@
         <v>3</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="4" t="n">
         <v>71.59999999999999</v>
@@ -1472,10 +1472,10 @@
         <v>1</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="4" t="n">
         <v>18.49</v>
@@ -1604,10 +1604,10 @@
         <v>2</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="4" t="n">
         <v>27.96</v>
@@ -2000,10 +2000,10 @@
         <v>2</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="4" t="n">
         <v>47.96</v>
@@ -2198,10 +2198,10 @@
         <v>6</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N26" s="4" t="n">
         <v>215</v>
@@ -2264,10 +2264,10 @@
         <v>2</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N27" s="4" t="n">
         <v>83.8</v>
@@ -2462,10 +2462,10 @@
         <v>1</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="4" t="n">
         <v>43.9</v>
@@ -2528,10 +2528,10 @@
         <v>4</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N31" s="4" t="n">
         <v>155.4</v>
@@ -2726,10 +2726,10 @@
         <v>1</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="4" t="n">
         <v>21.49</v>
@@ -2792,10 +2792,10 @@
         <v>6</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N35" s="4" t="n">
         <v>99.8</v>
@@ -2858,10 +2858,10 @@
         <v>1</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="4" t="n">
         <v>4.75</v>
@@ -2924,10 +2924,10 @@
         <v>1</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M37" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" s="4" t="n">
         <v>4.75</v>
@@ -3056,10 +3056,10 @@
         <v>2</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M39" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="4" t="n">
         <v>54.95</v>
@@ -3452,10 +3452,10 @@
         <v>3</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M45" s="3" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="N45" s="4" t="n">
         <v>38</v>
@@ -3584,10 +3584,10 @@
         <v>2</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M47" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="4" t="n">
         <v>314.75</v>
@@ -3980,10 +3980,10 @@
         <v>1</v>
       </c>
       <c r="L53" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M53" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N53" s="4" t="n">
         <v>23.9</v>
@@ -4376,10 +4376,10 @@
         <v>2</v>
       </c>
       <c r="L59" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M59" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" s="4" t="n">
         <v>47.94</v>
@@ -4574,10 +4574,10 @@
         <v>2</v>
       </c>
       <c r="L62" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M62" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N62" s="4" t="n">
         <v>77.7</v>
@@ -4640,10 +4640,10 @@
         <v>6</v>
       </c>
       <c r="L63" s="3" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M63" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N63" s="4" t="n">
         <v>107.82</v>
@@ -4904,10 +4904,10 @@
         <v>4</v>
       </c>
       <c r="L67" s="3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M67" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N67" s="4" t="n">
         <v>215.88</v>
@@ -4970,10 +4970,10 @@
         <v>6</v>
       </c>
       <c r="L68" s="3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M68" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N68" s="4" t="n">
         <v>203.15</v>
@@ -5102,10 +5102,10 @@
         <v>2</v>
       </c>
       <c r="L70" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M70" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" s="4" t="n">
         <v>91.8</v>
@@ -5168,10 +5168,10 @@
         <v>1</v>
       </c>
       <c r="L71" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M71" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" s="4" t="n">
         <v>22.95</v>
@@ -5762,10 +5762,10 @@
         <v>2</v>
       </c>
       <c r="L80" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M80" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" s="4" t="n">
         <v>39.96</v>
@@ -5828,10 +5828,10 @@
         <v>2</v>
       </c>
       <c r="L81" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M81" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N81" s="4" t="n">
         <v>119.7</v>
@@ -6422,10 +6422,10 @@
         <v>2</v>
       </c>
       <c r="L90" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M90" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N90" s="4" t="n">
         <v>83.7</v>
@@ -6554,10 +6554,10 @@
         <v>2</v>
       </c>
       <c r="L92" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M92" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N92" s="4" t="n">
         <v>39.96</v>
@@ -6818,10 +6818,10 @@
         <v>1</v>
       </c>
       <c r="L96" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M96" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96" s="4" t="n">
         <v>6.99</v>
@@ -6915,7 +6915,7 @@
         </is>
       </c>
       <c r="C100" s="8" t="n">
-        <v>374</v>
+        <v>425</v>
       </c>
     </row>
     <row r="101">
@@ -7035,7 +7035,7 @@
         </is>
       </c>
       <c r="C111" s="8" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_14_2026-02-03_vivero.xlsx
+++ b/data/output/Pedido_Semana_14_2026-02-03_vivero.xlsx
@@ -746,10 +746,10 @@
         <v>6</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>107.1</v>
@@ -878,10 +878,10 @@
         <v>2</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4" t="n">
         <v>65.7</v>
@@ -1406,10 +1406,10 @@
         <v>3</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14" s="4" t="n">
         <v>71.59999999999999</v>
@@ -1472,10 +1472,10 @@
         <v>1</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="4" t="n">
         <v>18.49</v>
@@ -1604,10 +1604,10 @@
         <v>2</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4" t="n">
         <v>27.96</v>
@@ -2000,10 +2000,10 @@
         <v>2</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="4" t="n">
         <v>47.96</v>
@@ -2198,10 +2198,10 @@
         <v>6</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N26" s="4" t="n">
         <v>215</v>
@@ -2264,10 +2264,10 @@
         <v>2</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N27" s="4" t="n">
         <v>83.8</v>
@@ -2462,10 +2462,10 @@
         <v>1</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="4" t="n">
         <v>43.9</v>
@@ -2528,10 +2528,10 @@
         <v>4</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N31" s="4" t="n">
         <v>155.4</v>
@@ -2726,10 +2726,10 @@
         <v>1</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="4" t="n">
         <v>21.49</v>
@@ -2792,10 +2792,10 @@
         <v>6</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M35" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N35" s="4" t="n">
         <v>99.8</v>
@@ -2858,10 +2858,10 @@
         <v>1</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="4" t="n">
         <v>4.75</v>
@@ -2924,10 +2924,10 @@
         <v>1</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" s="4" t="n">
         <v>4.75</v>
@@ -3056,10 +3056,10 @@
         <v>2</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M39" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" s="4" t="n">
         <v>54.95</v>
@@ -3452,10 +3452,10 @@
         <v>3</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M45" s="3" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="N45" s="4" t="n">
         <v>38</v>
@@ -3584,10 +3584,10 @@
         <v>2</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M47" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="4" t="n">
         <v>314.75</v>
@@ -3980,10 +3980,10 @@
         <v>1</v>
       </c>
       <c r="L53" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M53" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N53" s="4" t="n">
         <v>23.9</v>
@@ -4376,10 +4376,10 @@
         <v>2</v>
       </c>
       <c r="L59" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M59" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" s="4" t="n">
         <v>47.94</v>
@@ -4574,10 +4574,10 @@
         <v>2</v>
       </c>
       <c r="L62" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M62" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N62" s="4" t="n">
         <v>77.7</v>
@@ -4640,10 +4640,10 @@
         <v>6</v>
       </c>
       <c r="L63" s="3" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M63" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N63" s="4" t="n">
         <v>107.82</v>
@@ -4904,10 +4904,10 @@
         <v>4</v>
       </c>
       <c r="L67" s="3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M67" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N67" s="4" t="n">
         <v>215.88</v>
@@ -4970,10 +4970,10 @@
         <v>6</v>
       </c>
       <c r="L68" s="3" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M68" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N68" s="4" t="n">
         <v>203.15</v>
@@ -5102,10 +5102,10 @@
         <v>2</v>
       </c>
       <c r="L70" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M70" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" s="4" t="n">
         <v>91.8</v>
@@ -5168,10 +5168,10 @@
         <v>1</v>
       </c>
       <c r="L71" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M71" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71" s="4" t="n">
         <v>22.95</v>
@@ -5762,10 +5762,10 @@
         <v>2</v>
       </c>
       <c r="L80" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M80" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80" s="4" t="n">
         <v>39.96</v>
@@ -5828,10 +5828,10 @@
         <v>2</v>
       </c>
       <c r="L81" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M81" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N81" s="4" t="n">
         <v>119.7</v>
@@ -6422,10 +6422,10 @@
         <v>2</v>
       </c>
       <c r="L90" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M90" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N90" s="4" t="n">
         <v>83.7</v>
@@ -6554,10 +6554,10 @@
         <v>2</v>
       </c>
       <c r="L92" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M92" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92" s="4" t="n">
         <v>39.96</v>
@@ -6818,10 +6818,10 @@
         <v>1</v>
       </c>
       <c r="L96" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M96" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N96" s="4" t="n">
         <v>6.99</v>
@@ -6915,7 +6915,7 @@
         </is>
       </c>
       <c r="C100" s="8" t="n">
-        <v>425</v>
+        <v>374</v>
       </c>
     </row>
     <row r="101">
@@ -7035,7 +7035,7 @@
         </is>
       </c>
       <c r="C111" s="8" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
